--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3142524.345063028</v>
+        <v>-3145091.83294151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251558.01049059</v>
+        <v>13251558.01049058</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.2830023150578</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>296.2976307242</v>
+        <v>344.8220524225849</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>334.2322022722603</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>22.04338903228924</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.51701068787239</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.3806056120906</v>
+        <v>101.3806056120902</v>
       </c>
       <c r="T11" t="n">
-        <v>185.8959941192019</v>
+        <v>185.8959941192021</v>
       </c>
       <c r="U11" t="n">
-        <v>230.5887207466846</v>
+        <v>230.588720746685</v>
       </c>
       <c r="V11" t="n">
         <v>307.3014191217122</v>
       </c>
       <c r="W11" t="n">
-        <v>328.7901293689903</v>
+        <v>328.7901293689904</v>
       </c>
       <c r="X11" t="n">
-        <v>349.2802613300463</v>
+        <v>349.2802613300464</v>
       </c>
       <c r="Y11" t="n">
         <v>365.7870993076309</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.0823443014446</v>
+        <v>146.0823443014447</v>
       </c>
       <c r="C12" t="n">
-        <v>152.257659639893</v>
+        <v>152.2576596398931</v>
       </c>
       <c r="D12" t="n">
-        <v>126.994226216216</v>
+        <v>126.9942262162161</v>
       </c>
       <c r="E12" t="n">
-        <v>137.1942411069782</v>
+        <v>137.1942411069783</v>
       </c>
       <c r="F12" t="n">
-        <v>124.6183730449611</v>
+        <v>124.6183730449612</v>
       </c>
       <c r="G12" t="n">
-        <v>114.8455016504109</v>
+        <v>114.845501650411</v>
       </c>
       <c r="H12" t="n">
-        <v>72.01319298474895</v>
+        <v>72.01319298474904</v>
       </c>
       <c r="I12" t="n">
-        <v>8.58762446579189</v>
+        <v>8.587624465791913</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>113.2069323863959</v>
+        <v>113.206932386396</v>
       </c>
       <c r="T12" t="n">
         <v>171.4623327891076</v>
       </c>
       <c r="U12" t="n">
-        <v>205.3558600901589</v>
+        <v>205.3558600901592</v>
       </c>
       <c r="V12" t="n">
-        <v>212.3497478010025</v>
+        <v>212.3497478010026</v>
       </c>
       <c r="W12" t="n">
-        <v>231.2441438124969</v>
+        <v>231.244143812497</v>
       </c>
       <c r="X12" t="n">
-        <v>185.3221458550547</v>
+        <v>185.3221458550548</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.2318564288816</v>
+        <v>185.2318564288817</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.7959817502052</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8238562829268</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>126.517010567082</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.67219462618063</v>
+        <v>79.6721946261804</v>
       </c>
       <c r="S13" t="n">
         <v>173.6556140988368</v>
       </c>
       <c r="T13" t="n">
-        <v>200.1615377913008</v>
+        <v>200.1615377913012</v>
       </c>
       <c r="U13" t="n">
-        <v>265.774574532044</v>
+        <v>265.7745745320441</v>
       </c>
       <c r="V13" t="n">
-        <v>231.6868039754053</v>
+        <v>231.6868039754054</v>
       </c>
       <c r="W13" t="n">
         <v>266.0721589881683</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2588160406144</v>
+        <v>205.2588160406145</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.07517515120479</v>
+        <v>191.6200602510082</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077787</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574541</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E14" t="n">
-        <v>343.416929709033</v>
+        <v>252.7264128597768</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>165.4038071748355</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>256.0943240240915</v>
       </c>
       <c r="I14" t="n">
-        <v>3.063489409697098</v>
+        <v>3.063489409697077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.67432142494695</v>
+        <v>70.6743214249469</v>
       </c>
       <c r="T14" t="n">
         <v>165.4045297763917</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4817315956732</v>
+        <v>212.4817315956728</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069061</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541842</v>
+        <v>310.727528354184</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152402</v>
+        <v>331.21766031524</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928248</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187085</v>
+        <v>141.3185398187083</v>
       </c>
       <c r="C16" t="n">
-        <v>128.733380735399</v>
+        <v>128.7333807353988</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549835</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833403</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>90.52534751723795</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5123678957994</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>69.25455417252779</v>
+        <v>106.2415745510918</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681849</v>
+        <v>50.41871230681839</v>
       </c>
       <c r="S16" t="n">
-        <v>151.2555849682131</v>
+        <v>151.2555849682129</v>
       </c>
       <c r="T16" t="n">
-        <v>181.0355089129404</v>
+        <v>181.0355089129402</v>
       </c>
       <c r="U16" t="n">
-        <v>247.698397842384</v>
+        <v>247.6983978423839</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605992</v>
+        <v>213.624202960599</v>
       </c>
       <c r="W16" t="n">
-        <v>248.0095579733622</v>
+        <v>248.009557973362</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258083</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.071212988866</v>
+        <v>180.0712129888658</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136062</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
         <v>313.2370054253485</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007116</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115157</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307963</v>
       </c>
       <c r="V17" t="n">
         <v>230.06753824203</v>
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646375</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C19" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
         <v>313.2370054253485</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007116</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T20" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307963</v>
+        <v>153.3104517307976</v>
       </c>
       <c r="V20" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247811</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C22" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U22" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
         <v>313.2370054253485</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307976</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C25" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>305.4999607837984</v>
+        <v>305.4999607837982</v>
       </c>
       <c r="C26" t="n">
-        <v>288.0390108913254</v>
+        <v>288.0390108913252</v>
       </c>
       <c r="D26" t="n">
-        <v>277.4491607410008</v>
+        <v>277.4491607410006</v>
       </c>
       <c r="E26" t="n">
-        <v>304.6964891925796</v>
+        <v>304.6964891925794</v>
       </c>
       <c r="F26" t="n">
-        <v>329.6421648620293</v>
+        <v>329.6421648620291</v>
       </c>
       <c r="G26" t="n">
-        <v>333.6878447737713</v>
+        <v>333.6878447737711</v>
       </c>
       <c r="H26" t="n">
-        <v>217.3738835076383</v>
+        <v>217.3738835076381</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.95388090849398</v>
+        <v>31.95388090849347</v>
       </c>
       <c r="T26" t="n">
-        <v>126.684089259938</v>
+        <v>126.6840892599378</v>
       </c>
       <c r="U26" t="n">
-        <v>173.76129107922</v>
+        <v>173.7612910792205</v>
       </c>
       <c r="V26" t="n">
-        <v>250.5183775904528</v>
+        <v>250.5183775904525</v>
       </c>
       <c r="W26" t="n">
-        <v>272.0070878377309</v>
+        <v>272.0070878377306</v>
       </c>
       <c r="X26" t="n">
-        <v>292.4972197987869</v>
+        <v>292.4972197987867</v>
       </c>
       <c r="Y26" t="n">
-        <v>309.0040577763714</v>
+        <v>309.0040577763712</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165708</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247732</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.5980993022552</v>
+        <v>102.5980993022549</v>
       </c>
       <c r="C28" t="n">
-        <v>90.01294021894569</v>
+        <v>90.01294021894547</v>
       </c>
       <c r="D28" t="n">
-        <v>71.38159213853021</v>
+        <v>71.38159213853</v>
       </c>
       <c r="E28" t="n">
-        <v>69.20008176688702</v>
+        <v>69.20008176688681</v>
       </c>
       <c r="F28" t="n">
-        <v>68.1871671432491</v>
+        <v>68.18716714324889</v>
       </c>
       <c r="G28" t="n">
-        <v>88.79192737934608</v>
+        <v>88.79192737934586</v>
       </c>
       <c r="H28" t="n">
-        <v>67.52113403463864</v>
+        <v>67.52113403463842</v>
       </c>
       <c r="I28" t="n">
-        <v>19.11853953015595</v>
+        <v>19.11853953015574</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.69827179036518</v>
+        <v>11.69827179036497</v>
       </c>
       <c r="S28" t="n">
-        <v>112.5351444517597</v>
+        <v>112.5351444517595</v>
       </c>
       <c r="T28" t="n">
-        <v>142.315068396487</v>
+        <v>142.3150683964868</v>
       </c>
       <c r="U28" t="n">
-        <v>208.9779573259307</v>
+        <v>208.9779573259305</v>
       </c>
       <c r="V28" t="n">
-        <v>174.9037624441459</v>
+        <v>174.9037624441456</v>
       </c>
       <c r="W28" t="n">
-        <v>209.2891174569089</v>
+        <v>209.2891174569086</v>
       </c>
       <c r="X28" t="n">
-        <v>148.475774509355</v>
+        <v>148.4757745093548</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.3507724724126</v>
+        <v>141.3507724724124</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061315</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D29" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E29" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F29" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G29" t="n">
-        <v>351.7504457885774</v>
+        <v>351.7504457885775</v>
       </c>
       <c r="H29" t="n">
-        <v>235.4364845224443</v>
+        <v>235.4364845224445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329978</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T29" t="n">
-        <v>144.7466902747441</v>
+        <v>144.746690274744</v>
       </c>
       <c r="U29" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940264</v>
       </c>
       <c r="V29" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W29" t="n">
         <v>290.069688852537</v>
@@ -2858,7 +2858,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.0666587911775</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C31" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.4441931533363</v>
+        <v>89.44419315333634</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169312</v>
+        <v>87.26268278169316</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805519</v>
+        <v>86.24976815805523</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944473</v>
+        <v>85.58373504944477</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496204</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517127</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
-        <v>227.0405583407368</v>
+        <v>227.0405583407369</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
-        <v>166.5383755241611</v>
+        <v>166.5383755241612</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>144.7466902747441</v>
       </c>
       <c r="U32" t="n">
-        <v>191.8238920940255</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V32" t="n">
         <v>268.5809786052589</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007071</v>
+        <v>11.50304156007103</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307972</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="36">
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="37">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383249</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052303</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010755</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846436</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482644</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092342</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621597</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333709</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007116</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383249</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052303</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010755</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846436</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482644</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092342</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621597</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333709</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592155</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307981</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333689</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3995,7 +3995,7 @@
         <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851115</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092323</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.2182911260576</v>
+        <v>761.1607177069278</v>
       </c>
       <c r="C11" t="n">
-        <v>95.92775504100669</v>
+        <v>412.8556142497716</v>
       </c>
       <c r="D11" t="n">
-        <v>95.92775504100669</v>
+        <v>75.24732912627633</v>
       </c>
       <c r="E11" t="n">
-        <v>95.92775504100669</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="F11" t="n">
-        <v>95.92775504100669</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="G11" t="n">
-        <v>95.92775504100669</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="H11" t="n">
-        <v>95.92775504100669</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="I11" t="n">
-        <v>52.98127959871135</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="J11" t="n">
-        <v>195.2389893135614</v>
+        <v>195.2389893135619</v>
       </c>
       <c r="K11" t="n">
-        <v>459.184937915099</v>
+        <v>459.1849379150999</v>
       </c>
       <c r="L11" t="n">
-        <v>823.5349887105667</v>
+        <v>823.5349887105683</v>
       </c>
       <c r="M11" t="n">
-        <v>1260.614060403609</v>
+        <v>1260.614060403611</v>
       </c>
       <c r="N11" t="n">
-        <v>1709.379336807578</v>
+        <v>1709.37933680758</v>
       </c>
       <c r="O11" t="n">
-        <v>2119.800400583368</v>
+        <v>2119.800400583371</v>
       </c>
       <c r="P11" t="n">
-        <v>2435.584282230149</v>
+        <v>2435.584282230152</v>
       </c>
       <c r="Q11" t="n">
-        <v>2624.552079607775</v>
+        <v>2624.552079607779</v>
       </c>
       <c r="R11" t="n">
-        <v>2649.063979935567</v>
+        <v>2649.063979935572</v>
       </c>
       <c r="S11" t="n">
-        <v>2546.659327802142</v>
+        <v>2546.659327802147</v>
       </c>
       <c r="T11" t="n">
-        <v>2358.885596368605</v>
+        <v>2358.88559636861</v>
       </c>
       <c r="U11" t="n">
-        <v>2125.967696624479</v>
+        <v>2125.967696624483</v>
       </c>
       <c r="V11" t="n">
-        <v>1815.562222764164</v>
+        <v>1815.562222764168</v>
       </c>
       <c r="W11" t="n">
-        <v>1483.450980977305</v>
+        <v>1483.450980977309</v>
       </c>
       <c r="X11" t="n">
-        <v>1130.64263619948</v>
+        <v>1130.642636199484</v>
       </c>
       <c r="Y11" t="n">
-        <v>761.1607177069241</v>
+        <v>761.1607177069278</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>796.9316019310348</v>
+        <v>796.9316019310355</v>
       </c>
       <c r="C12" t="n">
-        <v>643.1359861331631</v>
+        <v>643.1359861331637</v>
       </c>
       <c r="D12" t="n">
-        <v>514.8589899551671</v>
+        <v>514.8589899551675</v>
       </c>
       <c r="E12" t="n">
-        <v>376.2789484329668</v>
+        <v>376.2789484329672</v>
       </c>
       <c r="F12" t="n">
-        <v>250.4018039431071</v>
+        <v>250.4018039431074</v>
       </c>
       <c r="G12" t="n">
-        <v>134.3962467204698</v>
+        <v>134.39624672047</v>
       </c>
       <c r="H12" t="n">
-        <v>61.65564774597588</v>
+        <v>61.655647745976</v>
       </c>
       <c r="I12" t="n">
-        <v>52.98127959871135</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="J12" t="n">
         <v>139.1374809399457</v>
       </c>
       <c r="K12" t="n">
-        <v>350.1891030796878</v>
+        <v>350.189103079688</v>
       </c>
       <c r="L12" t="n">
-        <v>673.3192360231919</v>
+        <v>673.3192360231924</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.373545965051</v>
+        <v>1066.373545965052</v>
       </c>
       <c r="N12" t="n">
-        <v>1483.703618701678</v>
+        <v>1483.703618701679</v>
       </c>
       <c r="O12" t="n">
-        <v>1844.984201582349</v>
+        <v>1844.98420158235</v>
       </c>
       <c r="P12" t="n">
-        <v>2119.607519575158</v>
+        <v>2119.60751957516</v>
       </c>
       <c r="Q12" t="n">
-        <v>2259.978933382945</v>
+        <v>2259.978933382948</v>
       </c>
       <c r="R12" t="n">
-        <v>2261.836009470976</v>
+        <v>2261.836009470979</v>
       </c>
       <c r="S12" t="n">
-        <v>2147.485572717041</v>
+        <v>2147.485572717043</v>
       </c>
       <c r="T12" t="n">
-        <v>1974.291297172488</v>
+        <v>1974.29129717249</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.861135465256</v>
+        <v>1766.861135465259</v>
       </c>
       <c r="V12" t="n">
-        <v>1552.36644071677</v>
+        <v>1552.366440716771</v>
       </c>
       <c r="W12" t="n">
-        <v>1318.786497471824</v>
+        <v>1318.786497471825</v>
       </c>
       <c r="X12" t="n">
-        <v>1131.592410749546</v>
+        <v>1131.592410749547</v>
       </c>
       <c r="Y12" t="n">
-        <v>944.4895254678476</v>
+        <v>944.4895254678484</v>
       </c>
     </row>
     <row r="13">
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.0730642956897</v>
+        <v>201.2600490433632</v>
       </c>
       <c r="C13" t="n">
-        <v>328.0730642956897</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="D13" t="n">
-        <v>328.0730642956897</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="E13" t="n">
-        <v>328.0730642956897</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="F13" t="n">
-        <v>328.0730642956897</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7762397674811</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="H13" t="n">
-        <v>52.98127959871135</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="I13" t="n">
-        <v>52.98127959871135</v>
+        <v>52.98127959871144</v>
       </c>
       <c r="J13" t="n">
-        <v>100.9298691497005</v>
+        <v>100.9298691497007</v>
       </c>
       <c r="K13" t="n">
-        <v>296.536357489119</v>
+        <v>296.5363574891194</v>
       </c>
       <c r="L13" t="n">
-        <v>596.7097501100704</v>
+        <v>596.7097501100709</v>
       </c>
       <c r="M13" t="n">
-        <v>922.4890420161319</v>
+        <v>922.4890420161322</v>
       </c>
       <c r="N13" t="n">
         <v>1246.438059432375</v>
       </c>
       <c r="O13" t="n">
-        <v>1531.186681524062</v>
+        <v>1531.186681524063</v>
       </c>
       <c r="P13" t="n">
-        <v>1754.239734500396</v>
+        <v>1754.239734500397</v>
       </c>
       <c r="Q13" t="n">
-        <v>1831.463847329786</v>
+        <v>1831.463847329787</v>
       </c>
       <c r="R13" t="n">
-        <v>1750.986883060916</v>
+        <v>1750.986883060918</v>
       </c>
       <c r="S13" t="n">
-        <v>1575.57717184997</v>
+        <v>1575.577171849971</v>
       </c>
       <c r="T13" t="n">
         <v>1373.393800343606</v>
@@ -5233,16 +5233,16 @@
         <v>1104.934634149622</v>
       </c>
       <c r="V13" t="n">
-        <v>870.9075594269902</v>
+        <v>870.9075594269906</v>
       </c>
       <c r="W13" t="n">
-        <v>602.1478028732849</v>
+        <v>602.1478028732852</v>
       </c>
       <c r="X13" t="n">
-        <v>394.8156654585229</v>
+        <v>394.815665458523</v>
       </c>
       <c r="Y13" t="n">
-        <v>328.0730642956897</v>
+        <v>201.2600490433632</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.990175986526</v>
+        <v>1232.990175986525</v>
       </c>
       <c r="C14" t="n">
-        <v>902.9301240594766</v>
+        <v>902.9301240594762</v>
       </c>
       <c r="D14" t="n">
-        <v>583.5668904660886</v>
+        <v>583.5668904660884</v>
       </c>
       <c r="E14" t="n">
-        <v>236.6811028812068</v>
+        <v>328.2876855572224</v>
       </c>
       <c r="F14" t="n">
-        <v>236.6811028812068</v>
+        <v>328.2876855572224</v>
       </c>
       <c r="G14" t="n">
-        <v>69.60655017935221</v>
+        <v>328.2876855572224</v>
       </c>
       <c r="H14" t="n">
-        <v>69.60655017935221</v>
+        <v>69.60655017935214</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149629</v>
+        <v>3254.217618149627</v>
       </c>
       <c r="T14" t="n">
-        <v>3087.142335547213</v>
+        <v>3087.142335547211</v>
       </c>
       <c r="U14" t="n">
-        <v>2872.514323834412</v>
+        <v>2872.51432383441</v>
       </c>
       <c r="V14" t="n">
-        <v>2580.353901504203</v>
+        <v>2580.353901504202</v>
       </c>
       <c r="W14" t="n">
-        <v>2266.487711247452</v>
+        <v>2266.487711247451</v>
       </c>
       <c r="X14" t="n">
-        <v>1931.924417999734</v>
+        <v>1931.924417999733</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.687551037285</v>
+        <v>1580.687551037284</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.5251040504166</v>
+        <v>615.5251040504179</v>
       </c>
       <c r="C16" t="n">
-        <v>485.4913861358722</v>
+        <v>485.4913861358737</v>
       </c>
       <c r="D16" t="n">
-        <v>374.2772117368989</v>
+        <v>374.2772117369005</v>
       </c>
       <c r="E16" t="n">
-        <v>265.2665831678675</v>
+        <v>265.2665831678701</v>
       </c>
       <c r="F16" t="n">
-        <v>265.2665831678675</v>
+        <v>173.826838200963</v>
       </c>
       <c r="G16" t="n">
-        <v>136.4662115559489</v>
+        <v>173.826838200963</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J16" t="n">
         <v>149.7630548387156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471886</v>
+        <v>391.8785437471884</v>
       </c>
       <c r="L16" t="n">
-        <v>746.5666481552814</v>
+        <v>746.5666481552811</v>
       </c>
       <c r="M16" t="n">
-        <v>1128.851999714427</v>
+        <v>1128.851999714426</v>
       </c>
       <c r="N16" t="n">
         <v>1508.388682379888</v>
@@ -5461,25 +5461,25 @@
         <v>2181.393003536155</v>
       </c>
       <c r="S16" t="n">
-        <v>2028.609584376344</v>
+        <v>2028.609584376345</v>
       </c>
       <c r="T16" t="n">
         <v>1845.745433959233</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.545032098239</v>
+        <v>1595.54503209824</v>
       </c>
       <c r="V16" t="n">
         <v>1379.763008905715</v>
       </c>
       <c r="W16" t="n">
-        <v>1129.248303882116</v>
+        <v>1129.248303882117</v>
       </c>
       <c r="X16" t="n">
-        <v>940.1612179974616</v>
+        <v>940.1612179974625</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.2711038672938</v>
+        <v>758.271103867295</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5498,10 +5498,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5543,19 +5543,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U17" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
         <v>1999.070337960652</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5650,10 +5650,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C19" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E19" t="n">
         <v>231.3077836159869</v>
@@ -5662,28 +5662,28 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L19" t="n">
-        <v>429.0634411854745</v>
+        <v>514.6126090571544</v>
       </c>
       <c r="M19" t="n">
-        <v>693.2037955104963</v>
+        <v>682.0450903563521</v>
       </c>
       <c r="N19" t="n">
-        <v>950.0618004120233</v>
+        <v>950.0618004120234</v>
       </c>
       <c r="O19" t="n">
         <v>1184.688022656037</v>
@@ -5716,7 +5716,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912081</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,10 +5762,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5780,22 +5780,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C22" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218342</v>
@@ -5908,52 +5908,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>370.0614702889411</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>525.7713142112984</v>
+        <v>417.9047360313293</v>
       </c>
       <c r="M22" t="n">
-        <v>693.2037955104963</v>
+        <v>682.045090356351</v>
       </c>
       <c r="N22" t="n">
-        <v>961.2205055661677</v>
+        <v>950.0618004120224</v>
       </c>
       <c r="O22" t="n">
-        <v>1176.02298077356</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F23" t="n">
         <v>581.8252978307335</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912092</v>
@@ -6005,31 +6005,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
         <v>1999.070337960652</v>
@@ -6060,13 +6060,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C25" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>155.2189959588247</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>350.237723252319</v>
       </c>
       <c r="L25" t="n">
-        <v>429.0634411854744</v>
+        <v>505.9475671746763</v>
       </c>
       <c r="M25" t="n">
-        <v>693.2037955104961</v>
+        <v>770.087921499698</v>
       </c>
       <c r="N25" t="n">
-        <v>961.2205055661675</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O25" t="n">
-        <v>1195.846727810181</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P25" t="n">
-        <v>1391.505603588764</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q25" t="n">
         <v>1481.310496936507</v>
@@ -6172,7 +6172,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
         <v>1273.865908363023</v>
@@ -6181,16 +6181,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1840.988531507979</v>
+        <v>1840.988531507976</v>
       </c>
       <c r="C26" t="n">
-        <v>1550.040035658155</v>
+        <v>1550.040035658154</v>
       </c>
       <c r="D26" t="n">
-        <v>1269.788358141992</v>
+        <v>1269.788358141991</v>
       </c>
       <c r="E26" t="n">
-        <v>962.0141266343362</v>
+        <v>962.0141266343352</v>
       </c>
       <c r="F26" t="n">
-        <v>629.0422429353167</v>
+        <v>629.0422429353159</v>
       </c>
       <c r="G26" t="n">
-        <v>291.9838138709011</v>
+        <v>291.9838138709009</v>
       </c>
       <c r="H26" t="n">
-        <v>72.4142345702564</v>
+        <v>72.41423457025633</v>
       </c>
       <c r="I26" t="n">
-        <v>107.714616165945</v>
+        <v>72.41423457025633</v>
       </c>
       <c r="J26" t="n">
-        <v>296.5937471249705</v>
+        <v>337.7549076001673</v>
       </c>
       <c r="K26" t="n">
-        <v>630.4131208148169</v>
+        <v>671.5742812900138</v>
       </c>
       <c r="L26" t="n">
-        <v>1081.447334063226</v>
+        <v>1199.070036609308</v>
       </c>
       <c r="M26" t="n">
-        <v>1614.97923873515</v>
+        <v>1732.601941281233</v>
       </c>
       <c r="N26" t="n">
-        <v>2238.219597864818</v>
+        <v>2279.380758340015</v>
       </c>
       <c r="O26" t="n">
-        <v>2741.192068744155</v>
+        <v>2842.172391772267</v>
       </c>
       <c r="P26" t="n">
-        <v>3160.485216058564</v>
+        <v>3236.946758129446</v>
       </c>
       <c r="Q26" t="n">
-        <v>3485.233119885132</v>
+        <v>3561.694661956014</v>
       </c>
       <c r="R26" t="n">
-        <v>3620.71172851282</v>
+        <v>3620.711728512816</v>
       </c>
       <c r="S26" t="n">
-        <v>3588.435081130503</v>
+        <v>3588.435081130499</v>
       </c>
       <c r="T26" t="n">
-        <v>3460.471354605313</v>
+        <v>3460.47135460531</v>
       </c>
       <c r="U26" t="n">
-        <v>3284.954898969737</v>
+        <v>3284.954898969734</v>
       </c>
       <c r="V26" t="n">
-        <v>3031.906032716754</v>
+        <v>3031.906032716751</v>
       </c>
       <c r="W26" t="n">
-        <v>2757.151398537228</v>
+        <v>2757.151398537225</v>
       </c>
       <c r="X26" t="n">
-        <v>2461.699661366736</v>
+        <v>2461.699661366734</v>
       </c>
       <c r="Y26" t="n">
-        <v>2149.574350481512</v>
+        <v>2149.57435048151</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>181.9234205308508</v>
       </c>
       <c r="H27" t="n">
-        <v>91.42152616871834</v>
+        <v>91.42152616871837</v>
       </c>
       <c r="I27" t="n">
-        <v>72.4142345702564</v>
+        <v>72.41423457025633</v>
       </c>
       <c r="J27" t="n">
         <v>166.0915040608737</v>
       </c>
       <c r="K27" t="n">
-        <v>404.3557030412209</v>
+        <v>404.3557030412208</v>
       </c>
       <c r="L27" t="n">
-        <v>771.0538633538863</v>
+        <v>771.0538633538862</v>
       </c>
       <c r="M27" t="n">
         <v>1218.330188576202</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.4176509457642</v>
+        <v>551.4176509457626</v>
       </c>
       <c r="C28" t="n">
-        <v>460.4954891084453</v>
+        <v>460.4954891084439</v>
       </c>
       <c r="D28" t="n">
-        <v>388.3928707866976</v>
+        <v>388.3928707866964</v>
       </c>
       <c r="E28" t="n">
-        <v>318.4937982948925</v>
+        <v>318.4937982948916</v>
       </c>
       <c r="F28" t="n">
-        <v>249.6178718875702</v>
+        <v>249.6178718875695</v>
       </c>
       <c r="G28" t="n">
-        <v>159.9290563528772</v>
+        <v>159.9290563528767</v>
       </c>
       <c r="H28" t="n">
-        <v>91.72589066132301</v>
+        <v>91.72589066132272</v>
       </c>
       <c r="I28" t="n">
-        <v>72.4142345702564</v>
+        <v>72.41423457025633</v>
       </c>
       <c r="J28" t="n">
-        <v>160.6985301785812</v>
+        <v>160.6985301785813</v>
       </c>
       <c r="K28" t="n">
-        <v>335.4709265171368</v>
+        <v>335.4709265171372</v>
       </c>
       <c r="L28" t="n">
-        <v>567.6423125103794</v>
+        <v>567.6423125103801</v>
       </c>
       <c r="M28" t="n">
-        <v>811.5363358804625</v>
+        <v>988.2609001808146</v>
       </c>
       <c r="N28" t="n">
-        <v>1059.306714981195</v>
+        <v>1272.34526362946</v>
       </c>
       <c r="O28" t="n">
-        <v>1435.097855972494</v>
+        <v>1486.725154918535</v>
       </c>
       <c r="P28" t="n">
-        <v>1662.137699742183</v>
+        <v>1662.137699742179</v>
       </c>
       <c r="Q28" t="n">
-        <v>1816.209537965583</v>
+        <v>1816.209537965579</v>
       </c>
       <c r="R28" t="n">
-        <v>1804.393101813699</v>
+        <v>1804.393101813695</v>
       </c>
       <c r="S28" t="n">
-        <v>1690.721238731113</v>
+        <v>1690.72123873111</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.968644391227</v>
+        <v>1546.968644391224</v>
       </c>
       <c r="U28" t="n">
-        <v>1335.879798607459</v>
+        <v>1335.879798607456</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.20933149216</v>
+        <v>1159.209331492157</v>
       </c>
       <c r="W28" t="n">
-        <v>947.8061825457872</v>
+        <v>947.806182545785</v>
       </c>
       <c r="X28" t="n">
-        <v>797.8306527383579</v>
+        <v>797.8306527383559</v>
       </c>
       <c r="Y28" t="n">
-        <v>655.0520946854159</v>
+        <v>655.0520946854141</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D29" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667531</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
-        <v>77.62710643600128</v>
+        <v>77.62710643600131</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703157</v>
+        <v>95.04551302703203</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522843</v>
+        <v>342.5042110522847</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083581</v>
+        <v>734.9031518083585</v>
       </c>
       <c r="L29" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861147</v>
       </c>
       <c r="N29" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.538825931719</v>
+        <v>3003.538825931721</v>
       </c>
       <c r="P29" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355126</v>
       </c>
       <c r="Q29" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R29" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T29" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X29" t="n">
         <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>629.2714055425482</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370927</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F30" t="n">
         <v>323.4993925639777</v>
@@ -6534,19 +6534,19 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I30" t="n">
-        <v>77.62710643600128</v>
+        <v>77.62710643600131</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266187</v>
       </c>
       <c r="K30" t="n">
         <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196312</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222592</v>
+        <v>684.3458835222596</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548332</v>
+        <v>575.1786701548335</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029783</v>
+        <v>484.8310003029786</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810663</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436366</v>
+        <v>309.5658983436368</v>
       </c>
       <c r="G31" t="n">
-        <v>201.6320312788364</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H31" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I31" t="n">
-        <v>77.62710643600128</v>
+        <v>77.62710643600131</v>
       </c>
       <c r="J31" t="n">
         <v>148.029427039668</v>
       </c>
       <c r="K31" t="n">
-        <v>410.5961770547717</v>
+        <v>410.5961770547716</v>
       </c>
       <c r="L31" t="n">
-        <v>624.8855880433563</v>
+        <v>723.6786076447804</v>
       </c>
       <c r="M31" t="n">
-        <v>928.0691938356808</v>
+        <v>1126.415220310557</v>
       </c>
       <c r="N31" t="n">
-        <v>1328.057137607773</v>
+        <v>1526.403164082649</v>
       </c>
       <c r="O31" t="n">
-        <v>1685.966303594414</v>
+        <v>1884.312330069289</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.1533710943</v>
+        <v>2041.842899888275</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U31" t="n">
         <v>1560.03328883449</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750674</v>
+        <v>967.2489883750677</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920181</v>
+        <v>806.2253787920184</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6692,43 @@
         <v>315.4417372667533</v>
       </c>
       <c r="H32" t="n">
-        <v>77.62710643600128</v>
+        <v>77.62710643600131</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703183</v>
+        <v>95.0455130270326</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522845</v>
+        <v>342.5042110522853</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083582</v>
+        <v>734.903151808359</v>
       </c>
       <c r="L32" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861147</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931721</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355126</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R32" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U32" t="n">
         <v>3490.863337666661</v>
@@ -6737,10 +6737,10 @@
         <v>3219.569419883571</v>
       </c>
       <c r="W32" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X32" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y32" t="n">
         <v>2282.502583058008</v>
@@ -6762,7 +6762,7 @@
         <v>629.2714055425482</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370927</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F33" t="n">
         <v>323.4993925639777</v>
@@ -6774,16 +6774,16 @@
         <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
-        <v>77.62710643600128</v>
+        <v>77.62710643600131</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266187</v>
       </c>
       <c r="K33" t="n">
         <v>409.5685749069658</v>
       </c>
       <c r="L33" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196312</v>
       </c>
       <c r="M33" t="n">
         <v>1223.543060441947</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222597</v>
+        <v>684.3458835222598</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548335</v>
+        <v>575.1786701548336</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029786</v>
+        <v>484.8310003029787</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810664</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436368</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788365</v>
+        <v>201.6320312788366</v>
       </c>
       <c r="H34" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I34" t="n">
-        <v>77.62710643600128</v>
+        <v>77.62710643600131</v>
       </c>
       <c r="J34" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K34" t="n">
-        <v>304.9198483735656</v>
+        <v>376.2939941513804</v>
       </c>
       <c r="L34" t="n">
-        <v>680.059213888289</v>
+        <v>751.4333596661038</v>
       </c>
       <c r="M34" t="n">
-        <v>928.0691938356824</v>
+        <v>1154.16997233188</v>
       </c>
       <c r="N34" t="n">
-        <v>1328.057137607774</v>
+        <v>1554.157916103972</v>
       </c>
       <c r="O34" t="n">
-        <v>1685.966303594415</v>
+        <v>1750.655832388389</v>
       </c>
       <c r="P34" t="n">
-        <v>1977.153371094302</v>
+        <v>2041.842899888275</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313043</v>
@@ -6898,10 +6898,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750678</v>
+        <v>967.2489883750679</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920185</v>
+        <v>806.2253787920187</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6953,34 +6953,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
         <v>1685.951113992584</v>
@@ -7035,7 +7035,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125857</v>
@@ -7044,13 +7044,13 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
         <v>1525.370990471664</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170933</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630297</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245372</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226751</v>
       </c>
       <c r="J37" t="n">
-        <v>79.65384678970707</v>
+        <v>79.65384678970696</v>
       </c>
       <c r="K37" t="n">
-        <v>253.5298502264955</v>
+        <v>274.6725740832011</v>
       </c>
       <c r="L37" t="n">
-        <v>505.9475671746767</v>
+        <v>505.9475671746794</v>
       </c>
       <c r="M37" t="n">
-        <v>673.3800484738745</v>
+        <v>770.087921499701</v>
       </c>
       <c r="N37" t="n">
-        <v>941.3967585295459</v>
+        <v>941.3967585295485</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773562</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552144</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219656</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304681</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673507</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431766</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734898</v>
       </c>
     </row>
     <row r="38">
@@ -7157,55 +7157,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7239,46 +7239,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170933</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630297</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245372</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226749</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588251</v>
+        <v>176.3617198155307</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523194</v>
+        <v>371.3804471090248</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746767</v>
+        <v>527.0902910313821</v>
       </c>
       <c r="M40" t="n">
-        <v>770.0879214996984</v>
+        <v>791.2306453564037</v>
       </c>
       <c r="N40" t="n">
-        <v>941.3967585295459</v>
+        <v>1038.104631555372</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.02298077356</v>
+        <v>1272.730853799386</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552144</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219656</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304681</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673507</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431766</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734898</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,7 +7436,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7448,13 +7448,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7573,13 +7573,13 @@
         <v>273.3535972631172</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746765</v>
+        <v>429.0634411854745</v>
       </c>
       <c r="M43" t="n">
-        <v>673.3800484738742</v>
+        <v>693.2037955104962</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295457</v>
+        <v>961.2205055661677</v>
       </c>
       <c r="O43" t="n">
         <v>1176.022980773559</v>
@@ -7588,10 +7588,10 @@
         <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219653</v>
@@ -7600,16 +7600,16 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304662</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431751</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y43" t="n">
         <v>485.2364260734884</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070897</v>
@@ -7634,43 +7634,43 @@
         <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218241</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
@@ -7682,16 +7682,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.0213023927779</v>
@@ -7722,7 +7722,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7731,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170921</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919198</v>
@@ -7798,58 +7798,58 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>155.2189959588241</v>
       </c>
       <c r="K46" t="n">
-        <v>273.3535972631172</v>
+        <v>350.2377232523185</v>
       </c>
       <c r="L46" t="n">
-        <v>429.0634411854745</v>
+        <v>602.6554402004997</v>
       </c>
       <c r="M46" t="n">
-        <v>693.2037955104962</v>
+        <v>866.7957945255215</v>
       </c>
       <c r="N46" t="n">
-        <v>961.2205055661677</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O46" t="n">
-        <v>1195.846727810181</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10039,16 +10039,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>36.68079227061816</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>52.14878681418645</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10273,10 +10273,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>99.79092889032756</v>
       </c>
       <c r="M31" t="n">
-        <v>77.95106810797927</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10285,10 +10285,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>38.4588554225441</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>22.22013291107913</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.77393521240705</v>
+        <v>14.77393521240706</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.283002315058</v>
       </c>
       <c r="C11" t="n">
-        <v>48.52442169838483</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2322022722602</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>361.479530723839</v>
+        <v>339.4361416915499</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4252063932887</v>
+        <v>386.4252063932888</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0257380076017</v>
+        <v>391.0257380076018</v>
       </c>
       <c r="H11" t="n">
         <v>279.8393000378531</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.51701068787233</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>159.3811408335146</v>
       </c>
       <c r="C13" t="n">
-        <v>146.7959817502051</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1646336697896</v>
+        <v>128.1646336697897</v>
       </c>
       <c r="E13" t="n">
-        <v>125.9831232981464</v>
+        <v>125.9831232981465</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9702086745085</v>
+        <v>124.9702086745086</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.8238562829269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>126.5170105670821</v>
       </c>
       <c r="I13" t="n">
-        <v>83.38630313085963</v>
+        <v>83.38630313085969</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>132.0586388524673</v>
+        <v>6.513753752663945</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>90.69051684925603</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784826</v>
+        <v>368.3626053784824</v>
       </c>
       <c r="G14" t="n">
-        <v>207.0044781153891</v>
+        <v>372.4082852902245</v>
       </c>
       <c r="H14" t="n">
-        <v>256.0943240240916</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597024</v>
+        <v>16.3822601424643</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>127.5123678957992</v>
       </c>
       <c r="H16" t="n">
-        <v>36.98702037856415</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660924</v>
+        <v>57.83898004660914</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>112652.3317030144</v>
+        <v>112652.3317030127</v>
       </c>
       <c r="E3" t="n">
-        <v>873064.1422095081</v>
+        <v>873064.1422095106</v>
       </c>
       <c r="F3" t="n">
-        <v>172008.5015608264</v>
+        <v>172008.5015608247</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190088</v>
+        <v>47337.02389190089</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19303.17247647454</v>
+        <v>19303.17247647436</v>
       </c>
       <c r="K3" t="n">
-        <v>16770.33007928789</v>
+        <v>16770.33007928818</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190084</v>
+        <v>47337.02389190076</v>
       </c>
       <c r="M3" t="n">
-        <v>161226.3376931561</v>
+        <v>161226.3376931564</v>
       </c>
       <c r="N3" t="n">
-        <v>41425.84091389769</v>
+        <v>41425.84091389721</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>421768.1011935024</v>
+        <v>421768.1011935031</v>
       </c>
       <c r="E4" t="n">
-        <v>48306.99980317942</v>
+        <v>48306.99980317926</v>
       </c>
       <c r="F4" t="n">
-        <v>54789.43521839494</v>
+        <v>54789.43521839515</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="J4" t="n">
-        <v>94538.12497809296</v>
+        <v>94538.12497809288</v>
       </c>
       <c r="K4" t="n">
+        <v>95465.08003076463</v>
+      </c>
+      <c r="L4" t="n">
         <v>95465.08003076466</v>
       </c>
-      <c r="L4" t="n">
-        <v>95465.08003076463</v>
-      </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657692</v>
       </c>
       <c r="O4" t="n">
         <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657697</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36495.16268711828</v>
+        <v>36495.16268711824</v>
       </c>
       <c r="E5" t="n">
-        <v>62733.36411102008</v>
+        <v>62733.36411102017</v>
       </c>
       <c r="F5" t="n">
-        <v>77544.12697928959</v>
+        <v>77544.12697928955</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="H5" t="n">
         <v>82518.59730624985</v>
@@ -26491,13 +26491,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
-        <v>85284.92547800275</v>
+        <v>85284.92547800273</v>
       </c>
       <c r="K5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="L5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624987</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501243.5599317312</v>
+        <v>-501247.9735095993</v>
       </c>
       <c r="C6" t="n">
-        <v>-501243.5599317312</v>
+        <v>-501247.9735095993</v>
       </c>
       <c r="D6" t="n">
-        <v>-570915.5955836351</v>
+        <v>-570919.9039298439</v>
       </c>
       <c r="E6" t="n">
-        <v>-984104.5061237076</v>
+        <v>-984517.0542789501</v>
       </c>
       <c r="F6" t="n">
-        <v>-304342.0637585109</v>
+        <v>-304519.6285950905</v>
       </c>
       <c r="G6" t="n">
-        <v>-223629.7590247277</v>
+        <v>-223629.7590247278</v>
       </c>
       <c r="H6" t="n">
-        <v>-176292.7351328268</v>
+        <v>-176292.735132827</v>
       </c>
       <c r="I6" t="n">
-        <v>-176292.7351328268</v>
+        <v>-176292.7351328269</v>
       </c>
       <c r="J6" t="n">
-        <v>-199126.2229325703</v>
+        <v>-199126.22293257</v>
       </c>
       <c r="K6" t="n">
-        <v>-199963.6134013077</v>
+        <v>-199963.613401308</v>
       </c>
       <c r="L6" t="n">
         <v>-230530.3072139206</v>
       </c>
       <c r="M6" t="n">
-        <v>-337519.0728259829</v>
+        <v>-337519.0728259833</v>
       </c>
       <c r="N6" t="n">
-        <v>-217718.5760467245</v>
+        <v>-217718.576046724</v>
       </c>
       <c r="O6" t="n">
-        <v>-176292.7351328269</v>
+        <v>-176292.735132827</v>
       </c>
       <c r="P6" t="n">
-        <v>-176292.7351328269</v>
+        <v>-176292.7351328268</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J2" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L2" t="n">
         <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035908</v>
+        <v>131.5395728035888</v>
       </c>
       <c r="E3" t="n">
-        <v>951.7573395787576</v>
+        <v>951.7573395787585</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838918</v>
+        <v>662.2659949838929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>905.1779321282049</v>
+        <v>905.177932128204</v>
       </c>
       <c r="K4" t="n">
-        <v>970.3388304500161</v>
+        <v>970.3388304500163</v>
       </c>
       <c r="L4" t="n">
-        <v>970.3388304500161</v>
+        <v>970.3388304500163</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.45083934842275</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="F2" t="n">
-        <v>18.06260101480609</v>
+        <v>18.06260101480635</v>
       </c>
       <c r="G2" t="n">
-        <v>59.1712798648761</v>
+        <v>59.17127986487596</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487595</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322896</v>
+        <v>38.51344036322886</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035908</v>
+        <v>131.5395728035888</v>
       </c>
       <c r="E3" t="n">
-        <v>820.2177667751669</v>
+        <v>820.2177667751697</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0193610145409</v>
+        <v>138.0193610145391</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838918</v>
+        <v>662.2659949838929</v>
       </c>
       <c r="F4" t="n">
-        <v>169.135460418401</v>
+        <v>169.1354604183992</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>73.77647672591206</v>
+        <v>73.77647672591138</v>
       </c>
       <c r="K4" t="n">
-        <v>65.16089832181115</v>
+        <v>65.16089832181228</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.3286199361685</v>
+        <v>523.32861993617</v>
       </c>
       <c r="N4" t="n">
-        <v>169.135460418401</v>
+        <v>169.135460418399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.45083934842275</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="K2" t="n">
-        <v>18.06260101480609</v>
+        <v>18.06260101480635</v>
       </c>
       <c r="L2" t="n">
-        <v>59.1712798648761</v>
+        <v>59.17127986487596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>662.2659949838918</v>
+        <v>662.2659949838929</v>
       </c>
       <c r="N4" t="n">
-        <v>169.135460418401</v>
+        <v>169.1354604183992</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>334.059205532954</v>
+        <v>334.0592055329541</v>
       </c>
       <c r="I8" t="n">
-        <v>190.0892387944846</v>
+        <v>190.0892387944849</v>
       </c>
       <c r="J8" t="n">
-        <v>136.1644700855254</v>
+        <v>136.1644700855261</v>
       </c>
       <c r="K8" t="n">
-        <v>152.8242151293433</v>
+        <v>152.8242151293443</v>
       </c>
       <c r="L8" t="n">
-        <v>152.3174455822378</v>
+        <v>152.3174455822391</v>
       </c>
       <c r="M8" t="n">
-        <v>137.4931758883842</v>
+        <v>137.4931758883857</v>
       </c>
       <c r="N8" t="n">
-        <v>135.0575467150765</v>
+        <v>135.0575467150779</v>
       </c>
       <c r="O8" t="n">
-        <v>141.0009724379238</v>
+        <v>141.0009724379252</v>
       </c>
       <c r="P8" t="n">
-        <v>155.1905636201043</v>
+        <v>155.1905636201054</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.2009902057308</v>
+        <v>165.2009902057317</v>
       </c>
       <c r="R8" t="n">
-        <v>182.3681601653942</v>
+        <v>182.3681601653947</v>
       </c>
       <c r="S8" t="n">
-        <v>196.9699871128309</v>
+        <v>196.9699871128311</v>
       </c>
       <c r="T8" t="n">
-        <v>220.7810174839395</v>
+        <v>220.7810174839396</v>
       </c>
       <c r="U8" t="n">
         <v>251.3033487236183</v>
@@ -27950,34 +27950,34 @@
         <v>109.5028957524068</v>
       </c>
       <c r="I9" t="n">
-        <v>89.78100597633785</v>
+        <v>89.78100597633799</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1065517821181</v>
+        <v>100.1065517821185</v>
       </c>
       <c r="K9" t="n">
-        <v>92.15377433370047</v>
+        <v>92.15377433370116</v>
       </c>
       <c r="L9" t="n">
-        <v>77.12167646249904</v>
+        <v>77.12167646249998</v>
       </c>
       <c r="M9" t="n">
-        <v>70.44496674406133</v>
+        <v>70.44496674406243</v>
       </c>
       <c r="N9" t="n">
-        <v>57.7552486146528</v>
+        <v>57.75524861465394</v>
       </c>
       <c r="O9" t="n">
-        <v>75.27900665315772</v>
+        <v>75.27900665315876</v>
       </c>
       <c r="P9" t="n">
-        <v>79.94638929430441</v>
+        <v>79.94638929430525</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.8654747758733</v>
+        <v>103.8654747758739</v>
       </c>
       <c r="R9" t="n">
-        <v>128.1127662978542</v>
+        <v>128.1127662978545</v>
       </c>
       <c r="S9" t="n">
         <v>166.4277928885246</v>
@@ -28026,37 +28026,37 @@
         <v>167.7537768501244</v>
       </c>
       <c r="H10" t="n">
-        <v>160.1182265697033</v>
+        <v>160.1182265697034</v>
       </c>
       <c r="I10" t="n">
-        <v>148.3171485857127</v>
+        <v>148.3171485857129</v>
       </c>
       <c r="J10" t="n">
-        <v>110.225204100158</v>
+        <v>110.2252041001582</v>
       </c>
       <c r="K10" t="n">
-        <v>101.4546394749634</v>
+        <v>101.4546394749638</v>
       </c>
       <c r="L10" t="n">
-        <v>99.61913245123952</v>
+        <v>99.61913245124006</v>
       </c>
       <c r="M10" t="n">
-        <v>101.7432125729769</v>
+        <v>101.7432125729775</v>
       </c>
       <c r="N10" t="n">
-        <v>91.3870915307603</v>
+        <v>91.38709153076087</v>
       </c>
       <c r="O10" t="n">
-        <v>104.9290420920029</v>
+        <v>104.9290420920035</v>
       </c>
       <c r="P10" t="n">
-        <v>109.0394388593284</v>
+        <v>109.0394388593289</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.6425261361036</v>
+        <v>131.6425261361039</v>
       </c>
       <c r="R10" t="n">
-        <v>166.6279040478816</v>
+        <v>166.6279040478818</v>
       </c>
       <c r="S10" t="n">
         <v>219.8828052326365</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="C11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="D11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="E11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="F11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="G11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="H11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="I11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="T11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="U11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="V11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="W11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="X11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="C12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="D12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="E12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="F12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="G12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="H12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="I12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="J12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="K12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="L12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="M12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="N12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="O12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="P12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="R12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="S12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="T12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="U12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="V12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="W12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="X12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="C13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="D13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="E13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="F13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="G13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="H13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="I13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="J13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="K13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="L13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="M13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="N13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="O13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="P13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="R13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="S13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="T13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="U13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="V13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="W13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="X13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.45083934842274</v>
+        <v>20.45083934842265</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322899</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810494</v>
+        <v>85.08100106221809</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>86.41330088048426</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>86.41330088048377</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O22" t="n">
-        <v>77.66073332242672</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810494</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>77.6607333224261</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.66073332242696</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="C26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="D26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="E26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="F26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="G26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="H26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="I26" t="n">
-        <v>77.23388087968215</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>77.23388087968215</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>60.42339651809618</v>
       </c>
       <c r="P26" t="n">
-        <v>24.76644541134476</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="R26" t="n">
-        <v>77.23388087968215</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="T26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="U26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="V26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="W26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="X26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="C28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="D28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="E28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="F28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="G28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="H28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="I28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="J28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="K28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="L28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="M28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="N28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="O28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="P28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="R28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="S28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="T28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="U28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="V28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="W28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="X28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.23388087968215</v>
+        <v>77.23388087968236</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>59.17127986487601</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487674</v>
       </c>
       <c r="J32" t="n">
         <v>59.17127986487601</v>
@@ -29782,7 +29782,7 @@
         <v>59.17127986487601</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O32" t="n">
         <v>59.17127986487601</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76.32843350415965</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810496</v>
+        <v>76.32843350416269</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="J40" t="n">
-        <v>77.66073332242652</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>76.32843350416286</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30642,49 +30642,49 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L43" t="n">
-        <v>77.66073332242627</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810499</v>
+        <v>77.66073332242587</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292496</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>76.32843350415857</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>77.66073332242613</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5288023027280029</v>
+        <v>0.5288023027279948</v>
       </c>
       <c r="H8" t="n">
-        <v>5.415596582813161</v>
+        <v>5.415596582813079</v>
       </c>
       <c r="I8" t="n">
-        <v>20.38665077592135</v>
+        <v>20.38665077592104</v>
       </c>
       <c r="J8" t="n">
-        <v>44.88143444116088</v>
+        <v>44.88143444116019</v>
       </c>
       <c r="K8" t="n">
-        <v>67.26563591563726</v>
+        <v>67.26563591563622</v>
       </c>
       <c r="L8" t="n">
-        <v>83.4489693877494</v>
+        <v>83.44896938774811</v>
       </c>
       <c r="M8" t="n">
-        <v>92.85305733888852</v>
+        <v>92.85305733888708</v>
       </c>
       <c r="N8" t="n">
-        <v>94.35551688151446</v>
+        <v>94.35551688151301</v>
       </c>
       <c r="O8" t="n">
-        <v>89.09723898376288</v>
+        <v>89.0972389837615</v>
       </c>
       <c r="P8" t="n">
-        <v>76.04243213516528</v>
+        <v>76.04243213516412</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.10469966871867</v>
+        <v>57.10469966871779</v>
       </c>
       <c r="R8" t="n">
-        <v>33.21737764873794</v>
+        <v>33.21737764873743</v>
       </c>
       <c r="S8" t="n">
-        <v>12.05008247341438</v>
+        <v>12.05008247341419</v>
       </c>
       <c r="T8" t="n">
-        <v>2.314832080191834</v>
+        <v>2.314832080191799</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04230418421824023</v>
+        <v>0.04230418421823957</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2829341754643275</v>
+        <v>0.2829341754643231</v>
       </c>
       <c r="H9" t="n">
-        <v>2.732548484089689</v>
+        <v>2.732548484089647</v>
       </c>
       <c r="I9" t="n">
-        <v>9.741374023662152</v>
+        <v>9.741374023662003</v>
       </c>
       <c r="J9" t="n">
-        <v>26.73107488454859</v>
+        <v>26.73107488454818</v>
       </c>
       <c r="K9" t="n">
-        <v>45.68766464065853</v>
+        <v>45.68766464065783</v>
       </c>
       <c r="L9" t="n">
-        <v>61.43270331737514</v>
+        <v>61.4327033173742</v>
       </c>
       <c r="M9" t="n">
-        <v>71.68906717795699</v>
+        <v>71.68906717795589</v>
       </c>
       <c r="N9" t="n">
-        <v>73.58646346868051</v>
+        <v>73.58646346867937</v>
       </c>
       <c r="O9" t="n">
-        <v>67.31723779128671</v>
+        <v>67.31723779128568</v>
       </c>
       <c r="P9" t="n">
-        <v>54.02801812002583</v>
+        <v>54.028018120025</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.11629931014819</v>
+        <v>36.11629931014763</v>
       </c>
       <c r="R9" t="n">
-        <v>17.56673766610974</v>
+        <v>17.56673766610947</v>
       </c>
       <c r="S9" t="n">
-        <v>5.255378215313272</v>
+        <v>5.255378215313191</v>
       </c>
       <c r="T9" t="n">
-        <v>1.140423277419811</v>
+        <v>1.140423277419793</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01861409049107418</v>
+        <v>0.0186140904910739</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2372025083343441</v>
+        <v>0.2372025083343405</v>
       </c>
       <c r="H10" t="n">
-        <v>2.108945937736261</v>
+        <v>2.108945937736229</v>
       </c>
       <c r="I10" t="n">
-        <v>7.13332634154555</v>
+        <v>7.13332634154544</v>
       </c>
       <c r="J10" t="n">
-        <v>16.77021733923813</v>
+        <v>16.77021733923787</v>
       </c>
       <c r="K10" t="n">
-        <v>27.55861869557197</v>
+        <v>27.55861869557155</v>
       </c>
       <c r="L10" t="n">
-        <v>35.26554382999876</v>
+        <v>35.26554382999822</v>
       </c>
       <c r="M10" t="n">
-        <v>37.18257137462813</v>
+        <v>37.18257137462756</v>
       </c>
       <c r="N10" t="n">
-        <v>36.29845293447288</v>
+        <v>36.29845293447232</v>
       </c>
       <c r="O10" t="n">
-        <v>33.52749635983985</v>
+        <v>33.52749635983933</v>
       </c>
       <c r="P10" t="n">
-        <v>28.6885651898192</v>
+        <v>28.68856518981876</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.86247549334221</v>
+        <v>19.86247549334191</v>
       </c>
       <c r="R10" t="n">
-        <v>10.66548732928787</v>
+        <v>10.66548732928771</v>
       </c>
       <c r="S10" t="n">
-        <v>4.133792804335795</v>
+        <v>4.133792804335732</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01350162651947</v>
+        <v>1.013501626519454</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01293831863641878</v>
+        <v>0.01293831863641859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.82616015911058</v>
+        <v>3.826160159110584</v>
       </c>
       <c r="H11" t="n">
-        <v>39.18466272949124</v>
+        <v>39.18466272949128</v>
       </c>
       <c r="I11" t="n">
-        <v>147.5080395341108</v>
+        <v>147.5080395341109</v>
       </c>
       <c r="J11" t="n">
-        <v>324.7405608043119</v>
+        <v>324.7405608043122</v>
       </c>
       <c r="K11" t="n">
-        <v>486.7019203394629</v>
+        <v>486.7019203394634</v>
       </c>
       <c r="L11" t="n">
-        <v>603.7967693088434</v>
+        <v>603.7967693088441</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8402450384262</v>
+        <v>671.8402450384268</v>
       </c>
       <c r="N11" t="n">
-        <v>682.7113225904992</v>
+        <v>682.7113225904999</v>
       </c>
       <c r="O11" t="n">
-        <v>644.6649425083433</v>
+        <v>644.664942508344</v>
       </c>
       <c r="P11" t="n">
-        <v>550.2066135803008</v>
+        <v>550.2066135803013</v>
       </c>
       <c r="Q11" t="n">
-        <v>413.182252882153</v>
+        <v>413.1822528821534</v>
       </c>
       <c r="R11" t="n">
-        <v>240.3450330947302</v>
+        <v>240.3450330947304</v>
       </c>
       <c r="S11" t="n">
-        <v>87.18862462573244</v>
+        <v>87.18862462573253</v>
       </c>
       <c r="T11" t="n">
-        <v>16.74901609650658</v>
+        <v>16.74901609650659</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3060928127288464</v>
+        <v>0.3060928127288467</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.047176164376951</v>
+        <v>2.047176164376952</v>
       </c>
       <c r="H12" t="n">
-        <v>19.77141190332476</v>
+        <v>19.77141190332478</v>
       </c>
       <c r="I12" t="n">
-        <v>70.48391618578536</v>
+        <v>70.48391618578543</v>
       </c>
       <c r="J12" t="n">
-        <v>193.4132533194908</v>
+        <v>193.413253319491</v>
       </c>
       <c r="K12" t="n">
-        <v>330.5740563327465</v>
+        <v>330.5740563327467</v>
       </c>
       <c r="L12" t="n">
-        <v>444.4976141117585</v>
+        <v>444.4976141117589</v>
       </c>
       <c r="M12" t="n">
-        <v>518.7077500704229</v>
+        <v>518.7077500704233</v>
       </c>
       <c r="N12" t="n">
-        <v>532.4364007517053</v>
+        <v>532.4364007517057</v>
       </c>
       <c r="O12" t="n">
-        <v>487.0752867936686</v>
+        <v>487.075286793669</v>
       </c>
       <c r="P12" t="n">
-        <v>390.9208589677354</v>
+        <v>390.9208589677358</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.3202416141525</v>
+        <v>261.3202416141527</v>
       </c>
       <c r="R12" t="n">
-        <v>127.1044990478953</v>
+        <v>127.1044990478954</v>
       </c>
       <c r="S12" t="n">
-        <v>38.0253993690192</v>
+        <v>38.02539936901925</v>
       </c>
       <c r="T12" t="n">
-        <v>8.251556557291302</v>
+        <v>8.251556557291309</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1346826423932205</v>
+        <v>0.1346826423932206</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.716283727109235</v>
+        <v>1.716283727109237</v>
       </c>
       <c r="H13" t="n">
-        <v>15.25932259193485</v>
+        <v>15.25932259193486</v>
       </c>
       <c r="I13" t="n">
-        <v>51.61333244797591</v>
+        <v>51.61333244797596</v>
       </c>
       <c r="J13" t="n">
-        <v>121.3412595066229</v>
+        <v>121.341259506623</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4009639314183</v>
+        <v>199.4009639314185</v>
       </c>
       <c r="L13" t="n">
-        <v>255.1645824831312</v>
+        <v>255.1645824831315</v>
       </c>
       <c r="M13" t="n">
-        <v>269.0352755140412</v>
+        <v>269.0352755140415</v>
       </c>
       <c r="N13" t="n">
-        <v>262.6382179857252</v>
+        <v>262.6382179857254</v>
       </c>
       <c r="O13" t="n">
-        <v>242.5889035372218</v>
+        <v>242.588903537222</v>
       </c>
       <c r="P13" t="n">
-        <v>207.5767155041932</v>
+        <v>207.5767155041934</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.7153582763924</v>
+        <v>143.7153582763925</v>
       </c>
       <c r="R13" t="n">
-        <v>77.17035740256613</v>
+        <v>77.1703574025662</v>
       </c>
       <c r="S13" t="n">
-        <v>29.91014458971275</v>
+        <v>29.91014458971278</v>
       </c>
       <c r="T13" t="n">
-        <v>7.333212288557638</v>
+        <v>7.333212288557645</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09361547602414019</v>
+        <v>0.09361547602414028</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>143.6946562776257</v>
+        <v>143.6946562776259</v>
       </c>
       <c r="K11" t="n">
-        <v>266.6120692944824</v>
+        <v>266.6120692944828</v>
       </c>
       <c r="L11" t="n">
-        <v>368.0303543388562</v>
+        <v>368.0303543388569</v>
       </c>
       <c r="M11" t="n">
-        <v>441.4940118111535</v>
+        <v>441.4940118111541</v>
       </c>
       <c r="N11" t="n">
-        <v>453.2982589939083</v>
+        <v>453.298258993909</v>
       </c>
       <c r="O11" t="n">
-        <v>414.5667310866565</v>
+        <v>414.5667310866572</v>
       </c>
       <c r="P11" t="n">
-        <v>318.9736178250312</v>
+        <v>318.9736178250318</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.8765630077035</v>
+        <v>190.8765630077039</v>
       </c>
       <c r="R11" t="n">
-        <v>24.75949528059809</v>
+        <v>24.75949528059832</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.02646600124682</v>
+        <v>87.02646600124692</v>
       </c>
       <c r="K12" t="n">
-        <v>213.1834567068102</v>
+        <v>213.1834567068104</v>
       </c>
       <c r="L12" t="n">
-        <v>326.3940736803071</v>
+        <v>326.3940736803074</v>
       </c>
       <c r="M12" t="n">
-        <v>397.0245554968273</v>
+        <v>397.0245554968277</v>
       </c>
       <c r="N12" t="n">
-        <v>421.5455280167947</v>
+        <v>421.5455280167951</v>
       </c>
       <c r="O12" t="n">
-        <v>364.9298816976469</v>
+        <v>364.9298816976473</v>
       </c>
       <c r="P12" t="n">
-        <v>277.3972909018279</v>
+        <v>277.3972909018282</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.7893068765537</v>
+        <v>141.7893068765539</v>
       </c>
       <c r="R12" t="n">
-        <v>1.875834432354065</v>
+        <v>1.875834432354083</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.43291873837288</v>
+        <v>48.43291873837289</v>
       </c>
       <c r="K13" t="n">
-        <v>197.5823114539582</v>
+        <v>197.5823114539583</v>
       </c>
       <c r="L13" t="n">
-        <v>303.2054470918701</v>
+        <v>303.2054470918703</v>
       </c>
       <c r="M13" t="n">
-        <v>329.0699918243045</v>
+        <v>329.0699918243047</v>
       </c>
       <c r="N13" t="n">
-        <v>327.2212297133765</v>
+        <v>327.2212297133766</v>
       </c>
       <c r="O13" t="n">
-        <v>287.6248707996842</v>
+        <v>287.6248707996843</v>
       </c>
       <c r="P13" t="n">
-        <v>225.3061141175094</v>
+        <v>225.3061141175095</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.00415437312077</v>
+        <v>78.00415437312081</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629509</v>
+        <v>84.09185697629513</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5610999075485</v>
+        <v>244.5610999075484</v>
       </c>
       <c r="L16" t="n">
         <v>358.270812533427</v>
@@ -35814,10 +35814,10 @@
         <v>386.1468197567127</v>
       </c>
       <c r="N16" t="n">
-        <v>383.370386530769</v>
+        <v>383.3703865307689</v>
       </c>
       <c r="O16" t="n">
-        <v>340.8665705858687</v>
+        <v>340.8665705858686</v>
       </c>
       <c r="P16" t="n">
         <v>273.4705115083393</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,31 +36036,31 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567487</v>
+        <v>242.3636716908617</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>259.4525302035626</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>243.6959715091274</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>216.9721971791841</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
         <v>197.6352280591743</v>
@@ -36300,7 +36300,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>89.60290861276899</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.71201348256916</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>35.6569511067562</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>268.0208818483949</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>532.8239952720146</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>629.5357162925936</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>568.4763974063153</v>
       </c>
       <c r="P26" t="n">
-        <v>423.5284316307166</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>328.0281856834016</v>
+        <v>328.0281856834018</v>
       </c>
       <c r="R26" t="n">
-        <v>136.8470794219069</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.17605617002503</v>
+        <v>89.17605617002525</v>
       </c>
       <c r="K28" t="n">
-        <v>176.5377740793492</v>
+        <v>176.5377740793494</v>
       </c>
       <c r="L28" t="n">
-        <v>234.5165515083258</v>
+        <v>234.5165515083261</v>
       </c>
       <c r="M28" t="n">
-        <v>246.3575993637203</v>
+        <v>424.8672602731662</v>
       </c>
       <c r="N28" t="n">
-        <v>250.2731102027604</v>
+        <v>286.9539024733788</v>
       </c>
       <c r="O28" t="n">
-        <v>379.5870111023219</v>
+        <v>216.5453447364397</v>
       </c>
       <c r="P28" t="n">
-        <v>229.3331755249379</v>
+        <v>177.1843887107517</v>
       </c>
       <c r="Q28" t="n">
-        <v>155.6281194175758</v>
+        <v>155.628119417576</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.5943500919501</v>
+        <v>17.59435009195005</v>
       </c>
       <c r="J29" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202766</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L29" t="n">
         <v>514.7613942572082</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.11345515521894</v>
+        <v>71.1134551552189</v>
       </c>
       <c r="K31" t="n">
         <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
-        <v>216.4539504935198</v>
+        <v>316.2448793838473</v>
       </c>
       <c r="M31" t="n">
-        <v>306.2460664568935</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
@@ -37005,10 +37005,10 @@
         <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1283510099865</v>
+        <v>159.1217876959453</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.5655184027697</v>
+        <v>72.22256002501821</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195005</v>
+        <v>17.59435009195079</v>
       </c>
       <c r="J32" t="n">
         <v>249.9582808335886</v>
@@ -37078,7 +37078,7 @@
         <v>598.0923956951027</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777875</v>
+        <v>611.4731152777874</v>
       </c>
       <c r="O32" t="n">
         <v>567.2242807530952</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.1134551552189</v>
+        <v>104.7496964779422</v>
       </c>
       <c r="K34" t="n">
-        <v>158.475173064543</v>
+        <v>196.9340284870871</v>
       </c>
       <c r="L34" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M34" t="n">
-        <v>250.5151312599933</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O34" t="n">
-        <v>361.5244100875158</v>
+        <v>198.4827437216333</v>
       </c>
       <c r="P34" t="n">
         <v>294.1283510099864</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5655184027697</v>
+        <v>72.2225600250182</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193743</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266712</v>
       </c>
       <c r="J37" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>175.6323267038267</v>
+        <v>196.9886134277718</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>233.6111041328064</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057478</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266712</v>
       </c>
       <c r="J40" t="n">
-        <v>89.60290861276941</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277718</v>
       </c>
       <c r="L40" t="n">
         <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>249.3676628272412</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057478</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
-        <v>234.94340395107</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>216.9721971791832</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591743</v>
@@ -37959,7 +37959,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>88.27060879450146</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>177.6112411534955</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
